--- a/doc/2023年共通/DB情報.xlsx
+++ b/doc/2023年共通/DB情報.xlsx
@@ -9,8 +9,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhJNKUeHQtCtPTwXDRImFA/MGFFbQ=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="1nMgvYITG0naD7IIDRYNeoilzbXw3FVqmI/wSiNkgIk="/>
     </ext>
   </extLst>
 </workbook>
@@ -315,7 +315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +376,24 @@
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -397,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -459,6 +477,15 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2742,10 +2769,10 @@
     </row>
     <row r="37" ht="18.75" customHeight="1">
       <c r="A37" s="12"/>
-      <c r="B37" s="17">
+      <c r="B37" s="21">
         <v>1.0</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="22">
         <v>1.0</v>
       </c>
       <c r="D37" s="17">
@@ -2763,10 +2790,10 @@
     </row>
     <row r="38" ht="18.75" customHeight="1">
       <c r="A38" s="12"/>
-      <c r="B38" s="17">
+      <c r="B38" s="21">
         <v>2.0</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="22">
         <v>4.0</v>
       </c>
       <c r="D38" s="17">
@@ -2784,10 +2811,10 @@
     </row>
     <row r="39" ht="18.75" customHeight="1">
       <c r="A39" s="12"/>
-      <c r="B39" s="17">
+      <c r="B39" s="21">
         <v>3.0</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="22">
         <v>5.0</v>
       </c>
       <c r="D39" s="17">
@@ -2805,10 +2832,10 @@
     </row>
     <row r="40" ht="18.75" customHeight="1">
       <c r="A40" s="12"/>
-      <c r="B40" s="17">
+      <c r="B40" s="21">
         <v>4.0</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="22">
         <v>6.0</v>
       </c>
       <c r="D40" s="17">
@@ -2826,10 +2853,10 @@
     </row>
     <row r="41" ht="18.75" customHeight="1">
       <c r="A41" s="12"/>
-      <c r="B41" s="17">
+      <c r="B41" s="21">
         <v>5.0</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="22">
         <v>7.0</v>
       </c>
       <c r="D41" s="17">
@@ -2847,10 +2874,10 @@
     </row>
     <row r="42" ht="18.75" customHeight="1">
       <c r="A42" s="12"/>
-      <c r="B42" s="17">
+      <c r="B42" s="21">
         <v>6.0</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="22">
         <v>8.0</v>
       </c>
       <c r="D42" s="17">
@@ -3009,7 +3036,7 @@
       <c r="B51" s="17">
         <v>1.0</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="23">
         <v>1.0</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -3033,7 +3060,7 @@
       <c r="B52" s="17">
         <v>1.0</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="23">
         <v>2.0</v>
       </c>
       <c r="D52" s="17" t="s">
@@ -3054,7 +3081,7 @@
       <c r="B53" s="17">
         <v>1.0</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="23">
         <v>3.0</v>
       </c>
       <c r="D53" s="17" t="s">
@@ -3075,7 +3102,7 @@
       <c r="B54" s="17">
         <v>1.0</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="23">
         <v>4.0</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -3096,7 +3123,7 @@
       <c r="B55" s="17">
         <v>1.0</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="23">
         <v>5.0</v>
       </c>
       <c r="D55" s="17" t="s">
@@ -3117,7 +3144,7 @@
       <c r="B56" s="17">
         <v>2.0</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="5">
         <v>1.0</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -3141,7 +3168,7 @@
       <c r="B57" s="17">
         <v>2.0</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="5">
         <v>2.0</v>
       </c>
       <c r="D57" s="17" t="s">
@@ -3162,7 +3189,7 @@
       <c r="B58" s="17">
         <v>2.0</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="5">
         <v>3.0</v>
       </c>
       <c r="D58" s="17" t="s">
@@ -3183,7 +3210,7 @@
       <c r="B59" s="17">
         <v>2.0</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="5">
         <v>4.0</v>
       </c>
       <c r="D59" s="17" t="s">
@@ -3204,7 +3231,7 @@
       <c r="B60" s="17">
         <v>2.0</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="5">
         <v>5.0</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -3225,7 +3252,7 @@
       <c r="B61" s="17">
         <v>3.0</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="21">
         <v>1.0</v>
       </c>
       <c r="D61" s="17" t="s">
@@ -3249,7 +3276,7 @@
       <c r="B62" s="17">
         <v>3.0</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="21">
         <v>2.0</v>
       </c>
       <c r="D62" s="17" t="s">
@@ -3270,7 +3297,7 @@
       <c r="B63" s="17">
         <v>3.0</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="21">
         <v>3.0</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -3291,7 +3318,7 @@
       <c r="B64" s="17">
         <v>3.0</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="21">
         <v>4.0</v>
       </c>
       <c r="D64" s="17" t="s">
@@ -3312,7 +3339,7 @@
       <c r="B65" s="17">
         <v>3.0</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="21">
         <v>5.0</v>
       </c>
       <c r="D65" s="17" t="s">
@@ -3333,7 +3360,7 @@
       <c r="B66" s="17">
         <v>3.0</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="21">
         <v>6.0</v>
       </c>
       <c r="D66" s="17" t="s">
@@ -3429,127 +3456,127 @@
     </row>
     <row r="72" ht="18.75" customHeight="1">
       <c r="A72" s="11"/>
-      <c r="B72" s="21">
+      <c r="B72" s="24">
         <v>202303.0</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="24">
         <v>5.0</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="25">
         <v>45011.0</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E72" s="25">
         <v>45017.0</v>
       </c>
-      <c r="F72" s="23">
+      <c r="F72" s="26">
         <v>45049.0</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="26">
         <v>45049.0</v>
       </c>
     </row>
     <row r="73" ht="18.75" customHeight="1">
       <c r="A73" s="11"/>
-      <c r="B73" s="21">
+      <c r="B73" s="24">
         <v>202304.0</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="24">
         <v>1.0</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="25">
         <v>45018.0</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E73" s="25">
         <v>45024.0</v>
       </c>
-      <c r="F73" s="23">
+      <c r="F73" s="26">
         <v>45049.0</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G73" s="26">
         <v>45049.0</v>
       </c>
     </row>
     <row r="74" ht="18.75" customHeight="1">
       <c r="A74" s="11"/>
-      <c r="B74" s="21">
+      <c r="B74" s="24">
         <v>202304.0</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="24">
         <v>2.0</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="25">
         <v>45025.0</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E74" s="25">
         <v>45031.0</v>
       </c>
-      <c r="F74" s="23">
+      <c r="F74" s="26">
         <v>45049.0</v>
       </c>
-      <c r="G74" s="23">
+      <c r="G74" s="26">
         <v>45049.0</v>
       </c>
     </row>
     <row r="75" ht="18.75" customHeight="1">
       <c r="A75" s="11"/>
-      <c r="B75" s="21">
+      <c r="B75" s="24">
         <v>202304.0</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="24">
         <v>3.0</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="25">
         <v>45032.0</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E75" s="25">
         <v>45038.0</v>
       </c>
-      <c r="F75" s="23">
+      <c r="F75" s="26">
         <v>45049.0</v>
       </c>
-      <c r="G75" s="23">
+      <c r="G75" s="26">
         <v>45049.0</v>
       </c>
     </row>
     <row r="76" ht="18.75" customHeight="1">
       <c r="A76" s="11"/>
-      <c r="B76" s="21">
+      <c r="B76" s="24">
         <v>202304.0</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="24">
         <v>4.0</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="25">
         <v>45039.0</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E76" s="25">
         <v>45045.0</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F76" s="26">
         <v>45049.0</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G76" s="26">
         <v>45049.0</v>
       </c>
     </row>
     <row r="77" ht="18.75" customHeight="1">
       <c r="A77" s="11"/>
-      <c r="B77" s="21">
+      <c r="B77" s="24">
         <v>202304.0</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="24">
         <v>5.0</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="25">
         <v>45046.0</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E77" s="25">
         <v>45052.0</v>
       </c>
-      <c r="F77" s="23">
+      <c r="F77" s="26">
         <v>45049.0</v>
       </c>
-      <c r="G77" s="23">
+      <c r="G77" s="26">
         <v>45049.0</v>
       </c>
     </row>
